--- a/Factura.xlsx
+++ b/Factura.xlsx
@@ -283,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -364,6 +364,12 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="13" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,7 +673,7 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -790,12 +796,16 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="12"/>
+      <c r="A14" s="12">
+        <v>7</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="25"/>
+      <c r="F14" s="25">
+        <v>4.63</v>
+      </c>
       <c r="G14" s="25" t="str">
         <f>A14*F14</f>
         <v>0</v>
@@ -808,10 +818,7 @@
       <c r="D15"/>
       <c r="E15" s="7"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="25" t="str">
-        <f>A15*F15</f>
-        <v>0</v>
-      </c>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="12"/>
@@ -820,10 +827,7 @@
       <c r="D16"/>
       <c r="E16" s="7"/>
       <c r="F16" s="25"/>
-      <c r="G16" s="25" t="str">
-        <f>A16*F16</f>
-        <v>0</v>
-      </c>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="12"/>
@@ -832,10 +836,7 @@
       <c r="D17"/>
       <c r="E17" s="7"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="25" t="str">
-        <f>A17*F17</f>
-        <v>0</v>
-      </c>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="12"/>
@@ -844,10 +845,7 @@
       <c r="D18"/>
       <c r="E18" s="7"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="25" t="str">
-        <f>A18*F18</f>
-        <v>0</v>
-      </c>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="12"/>
@@ -856,10 +854,7 @@
       <c r="D19"/>
       <c r="E19" s="7"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="25" t="str">
-        <f>A19*F19</f>
-        <v>0</v>
-      </c>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="12"/>
@@ -868,10 +863,7 @@
       <c r="D20"/>
       <c r="E20" s="7"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="25" t="str">
-        <f>A20*F20</f>
-        <v>0</v>
-      </c>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="12"/>
@@ -880,10 +872,7 @@
       <c r="D21"/>
       <c r="E21" s="7"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="25" t="str">
-        <f>A21*F21</f>
-        <v>0</v>
-      </c>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="12"/>
@@ -892,10 +881,7 @@
       <c r="D22"/>
       <c r="E22" s="7"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="25" t="str">
-        <f>A22*F22</f>
-        <v>0</v>
-      </c>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="12"/>
@@ -904,10 +890,7 @@
       <c r="D23"/>
       <c r="E23" s="7"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="25" t="str">
-        <f>A23*F23</f>
-        <v>0</v>
-      </c>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="12"/>
@@ -916,10 +899,7 @@
       <c r="D24"/>
       <c r="E24" s="7"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="25" t="str">
-        <f>A24*F24</f>
-        <v>0</v>
-      </c>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="12"/>
@@ -928,10 +908,7 @@
       <c r="D25"/>
       <c r="E25" s="7"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="25" t="str">
-        <f>A25*F25</f>
-        <v>0</v>
-      </c>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="12"/>
@@ -940,10 +917,7 @@
       <c r="D26"/>
       <c r="E26" s="7"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="25" t="str">
-        <f>A26*F26</f>
-        <v>0</v>
-      </c>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="12"/>
@@ -952,10 +926,7 @@
       <c r="D27"/>
       <c r="E27" s="7"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="25" t="str">
-        <f>A27*F27</f>
-        <v>0</v>
-      </c>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="12"/>
@@ -964,10 +935,7 @@
       <c r="D28"/>
       <c r="E28" s="7"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="25" t="str">
-        <f>A28*F28</f>
-        <v>0</v>
-      </c>
+      <c r="G28" s="25"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="12"/>
@@ -976,10 +944,7 @@
       <c r="D29"/>
       <c r="E29" s="7"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="25" t="str">
-        <f>A29*F29</f>
-        <v>0</v>
-      </c>
+      <c r="G29" s="25"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="12"/>
@@ -988,10 +953,7 @@
       <c r="D30"/>
       <c r="E30" s="7"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="25" t="str">
-        <f>A30*F30</f>
-        <v>0</v>
-      </c>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="12"/>
@@ -1000,10 +962,7 @@
       <c r="D31"/>
       <c r="E31" s="7"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="25" t="str">
-        <f>A31*F31</f>
-        <v>0</v>
-      </c>
+      <c r="G31" s="25"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="12"/>
@@ -1012,10 +971,7 @@
       <c r="D32"/>
       <c r="E32" s="7"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="25" t="str">
-        <f>A32*F32</f>
-        <v>0</v>
-      </c>
+      <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="12"/>
@@ -1024,10 +980,7 @@
       <c r="D33"/>
       <c r="E33" s="7"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="25" t="str">
-        <f>A33*F33</f>
-        <v>0</v>
-      </c>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="12"/>
@@ -1036,10 +989,7 @@
       <c r="D34"/>
       <c r="E34" s="7"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="25" t="str">
-        <f>A34*F34</f>
-        <v>0</v>
-      </c>
+      <c r="G34" s="25"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="12"/>
@@ -1048,10 +998,7 @@
       <c r="D35"/>
       <c r="E35" s="7"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="25" t="str">
-        <f>A35*F35</f>
-        <v>0</v>
-      </c>
+      <c r="G35" s="25"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="12"/>
@@ -1060,10 +1007,7 @@
       <c r="D36"/>
       <c r="E36" s="7"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="25" t="str">
-        <f>A36*F36</f>
-        <v>0</v>
-      </c>
+      <c r="G36" s="25"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="12"/>
@@ -1072,10 +1016,7 @@
       <c r="D37"/>
       <c r="E37" s="7"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="25" t="str">
-        <f>A37*F37</f>
-        <v>0</v>
-      </c>
+      <c r="G37" s="25"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="12"/>
@@ -1084,10 +1025,7 @@
       <c r="D38"/>
       <c r="E38" s="7"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="25" t="str">
-        <f>A38*F38</f>
-        <v>0</v>
-      </c>
+      <c r="G38" s="25"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="12"/>
@@ -1096,10 +1034,7 @@
       <c r="D39"/>
       <c r="E39" s="7"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="25" t="str">
-        <f>A39*F39</f>
-        <v>0</v>
-      </c>
+      <c r="G39" s="25"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="12"/>
@@ -1108,10 +1043,7 @@
       <c r="D40"/>
       <c r="E40" s="7"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="25" t="str">
-        <f>A40*F40</f>
-        <v>0</v>
-      </c>
+      <c r="G40" s="25"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="13"/>
@@ -1120,10 +1052,7 @@
       <c r="D41" s="5"/>
       <c r="E41" s="8"/>
       <c r="F41" s="26"/>
-      <c r="G41" s="26" t="str">
-        <f>A41*F41</f>
-        <v>0</v>
-      </c>
+      <c r="G41" s="26"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
@@ -1134,10 +1063,21 @@
       </c>
     </row>
     <row r="44" spans="1:7">
+      <c r="A44" s="27" t="str">
+        <f>SUM(G13:G41)</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="27" t="str">
+        <f>A44*21%</f>
+        <v>0</v>
+      </c>
       <c r="E44" t="s">
         <v>15</v>
       </c>
-      <c r="F44"/>
+      <c r="F44" s="28" t="str">
+        <f>A44+C44</f>
+        <v>0</v>
+      </c>
       <c r="G44"/>
     </row>
     <row r="46" spans="1:7" customHeight="1" ht="45">
@@ -1169,6 +1109,35 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
